--- a/pred_ohlcv/54_21/2019-10-28 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1202904.6404043</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3352372.6647957</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3352371.6647957</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3353200.098795699</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6863354.278787179</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-6862305.761587179</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-6862371.486787179</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-6686186.34608718</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-6691048.64638718</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-6691492.06968718</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6692049.14638718</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-6675312.83458718</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6666837.04018718</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-6634851.47768299</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-6617637.21058299</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-6619221.15208299</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-6619776.83608299</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-6629244.18868299</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-6633147.48458299</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-6633146.48458299</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-6633146.48458299</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-6633582.56368299</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-6646631.641282991</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-6646638.91828299</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-6652305.68938299</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-6652303.68938299</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-6652303.68938299</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-6647048.72079661</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-6647047.72079661</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-6647047.72079661</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-6645909.96321105</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-6646059.96321105</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-6646561.16491105</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-6646495.89507772</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-6640755.74357979</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-6643274.39637979</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-6643424.39637979</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-6641945.60877979</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-6641235.08277979</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-6641235.08277979</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-6643235.08277979</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-6643232.238279791</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-6643232.238279791</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-6643319.683779791</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-6643904.905579791</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-6644047.388279791</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6643596.960279792</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6640024.007465212</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6651976.050465211</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 STEEM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1004342.3275</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2005904.0351043</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-465779.4525956998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1392179.4525957</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1392179.4525957</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3352917.624795699</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6863354.278787179</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-6862305.761587179</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-6862305.761587179</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-6862371.486787179</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-6856307.32108718</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-6686186.34608718</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-6691048.64638718</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-6691492.06968718</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6692049.14638718</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-6684638.09998718</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-6682531.83458718</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-6675312.83458718</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6666837.04018718</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-6634851.47768299</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-6617541.77158299</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-6617637.21058299</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-6619018.15208299</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-6619221.15208299</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-6619776.83608299</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-6627775.83608299</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-6623863.86738299</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-6629246.35798299</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-6629246.35798299</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-6629246.35798299</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-6629244.18868299</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-6633147.48458299</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-6633146.48458299</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-6633146.48458299</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-6633582.56368299</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-6646631.641282991</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-6646630.641282991</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-6646638.91828299</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-6646637.91828299</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-6652305.68938299</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-6652305.68938299</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-6652303.68938299</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-6652303.68938299</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-6652294.68938299</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-6647048.72079661</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-6647048.72079661</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-6647047.72079661</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-6647047.72079661</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-6645909.96321105</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-6646059.96321105</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-6646561.16491105</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-6646495.89507772</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-6640755.74357979</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-6643274.39637979</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-6643424.39637979</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-6641945.60877979</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-6641235.08277979</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-6641235.08277979</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-6643235.08277979</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-6643232.238279791</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-6643232.238279791</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-6643319.683779791</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-6643904.905579791</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-6644047.388279791</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-6643521.674279791</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-6643422.674279791</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6643596.960279792</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-6638382.654865212</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-6640024.007465212</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6640024.007465212</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-6640024.007465212</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-6640641.992865211</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-6651992.007465212</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6651976.050465211</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
